--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectGroupProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectGroupProfile_AddNewProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DC704-F157-4370-B18F-C57182FDBC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D5274F-6572-4A17-90B4-45C5C291BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E0FFD4F-E232-440F-B15F-C16B4E6F008C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Keyword</t>
   </si>
@@ -82,9 +82,6 @@
     <t>txt_endDate</t>
   </si>
   <si>
-    <t>getConfigData=ReqDueDate</t>
-  </si>
-  <si>
     <t>jsClick</t>
   </si>
   <si>
@@ -94,15 +91,6 @@
     <t>button_saveDetails</t>
   </si>
   <si>
-    <t>link_agencyObjectProfile_wait</t>
-  </si>
-  <si>
-    <t>txt_agencyObjectGroup</t>
-  </si>
-  <si>
-    <t>getData=AgencyObjectGroup</t>
-  </si>
-  <si>
     <t>Iteration</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Agency</t>
   </si>
   <si>
-    <t>ReqDueDate</t>
-  </si>
-  <si>
     <t>WaitForPageLoad</t>
   </si>
   <si>
@@ -127,13 +112,88 @@
     <t>J02 - J02</t>
   </si>
   <si>
-    <t>AgencyObjectGroup</t>
-  </si>
-  <si>
     <t>Offset2</t>
   </si>
   <si>
-    <t>dropdown_agency_agencyObjectProfile</t>
+    <t>txt_agencyObj_aop</t>
+  </si>
+  <si>
+    <t>txt_startDate</t>
+  </si>
+  <si>
+    <t>dropdown_agencyObjectGroup_aop</t>
+  </si>
+  <si>
+    <t>dropdown_comptrollerObject_aop</t>
+  </si>
+  <si>
+    <t>dropdown_objectType_aop</t>
+  </si>
+  <si>
+    <t>dropdown_agency</t>
+  </si>
+  <si>
+    <t>dropdown_approYear_aop</t>
+  </si>
+  <si>
+    <t>getData=AgencyObject</t>
+  </si>
+  <si>
+    <t>getData=ApproYear</t>
+  </si>
+  <si>
+    <t>getData=Toggle</t>
+  </si>
+  <si>
+    <t>getData=AgObjGrp</t>
+  </si>
+  <si>
+    <t>getData=ComtObj</t>
+  </si>
+  <si>
+    <t>getData=ObjType</t>
+  </si>
+  <si>
+    <t>AgencyObject</t>
+  </si>
+  <si>
+    <t>ApproYear</t>
+  </si>
+  <si>
+    <t>Toggle</t>
+  </si>
+  <si>
+    <t>AgObjGrp</t>
+  </si>
+  <si>
+    <t>ComtObj</t>
+  </si>
+  <si>
+    <t>ObjType</t>
+  </si>
+  <si>
+    <t>AutoDemo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 - TEST 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0160 - EARLY RETIREMENT SURCHARGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E - EXP </t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>getData=StartDate</t>
+  </si>
+  <si>
+    <t>getConfigData=EndDate</t>
   </si>
 </sst>
 </file>
@@ -188,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,12 +295,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -251,6 +322,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,17 +639,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1026DE-BC69-4D9F-B6E9-C63F9ACB14BE}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
@@ -607,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -621,10 +694,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -649,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -660,45 +733,115 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,66 +850,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DED121D-A912-476E-87B7-CF898742DE24}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>9001</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectGroupProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectGroupProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D5274F-6572-4A17-90B4-45C5C291BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AA1618-CEBC-4C2B-8B64-AA0FC3C68880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E0FFD4F-E232-440F-B15F-C16B4E6F008C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9E0FFD4F-E232-440F-B15F-C16B4E6F008C}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Keyword</t>
   </si>
@@ -115,45 +115,15 @@
     <t>Offset2</t>
   </si>
   <si>
-    <t>txt_agencyObj_aop</t>
-  </si>
-  <si>
-    <t>txt_startDate</t>
-  </si>
-  <si>
-    <t>dropdown_agencyObjectGroup_aop</t>
-  </si>
-  <si>
-    <t>dropdown_comptrollerObject_aop</t>
-  </si>
-  <si>
-    <t>dropdown_objectType_aop</t>
-  </si>
-  <si>
     <t>dropdown_agency</t>
   </si>
   <si>
-    <t>dropdown_approYear_aop</t>
-  </si>
-  <si>
     <t>getData=AgencyObject</t>
   </si>
   <si>
-    <t>getData=ApproYear</t>
-  </si>
-  <si>
     <t>getData=Toggle</t>
   </si>
   <si>
-    <t>getData=AgObjGrp</t>
-  </si>
-  <si>
-    <t>getData=ComtObj</t>
-  </si>
-  <si>
-    <t>getData=ObjType</t>
-  </si>
-  <si>
     <t>AgencyObject</t>
   </si>
   <si>
@@ -190,10 +160,16 @@
     <t>StartDate</t>
   </si>
   <si>
-    <t>getData=StartDate</t>
-  </si>
-  <si>
     <t>getConfigData=EndDate</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>AddNewProfile_AgencyObjectGroupProfile</t>
+  </si>
+  <si>
+    <t>txt_agencyObjectGroup</t>
   </si>
 </sst>
 </file>
@@ -639,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1026DE-BC69-4D9F-B6E9-C63F9ACB14BE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -691,14 +667,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -708,10 +682,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -719,13 +693,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -736,10 +710,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -750,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -761,87 +735,31 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DED121D-A912-476E-87B7-CF898742DE24}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -884,34 +802,34 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -923,10 +841,10 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
-        <v>9001</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>2023</v>
@@ -939,13 +857,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
